--- a/NTC/NTC.xlsx
+++ b/NTC/NTC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\Arduino2023\NTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA339EA2-BAAF-4FF4-A84B-033BD80E1E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02481E70-5465-4E09-8F9C-9DAD959558A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NTC" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1370,8 +1370,8 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
@@ -4262,7 +4262,7 @@
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
@@ -5455,7 +5455,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-CH"/>
-                  <a:t>Volatage [V]</a:t>
+                  <a:t>Voltage [V]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5649,9 +5649,9 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="accent1">
-                <a:alpha val="76000"/>
                 <a:lumMod val="29000"/>
                 <a:lumOff val="71000"/>
+                <a:alpha val="81000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="74000">
@@ -6917,16 +6917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7250,11 +7250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U19" workbookViewId="0">
-      <selection activeCell="AP36" sqref="AP36"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
